--- a/Project Outputs for DCDC_SAUVC26_PCB/ГИДР.123456.014-01.02/Документация/ГИДР.123456.014-01.02 ПЭ3.xlsx
+++ b/Project Outputs for DCDC_SAUVC26_PCB/ГИДР.123456.014-01.02/Документация/ГИДР.123456.014-01.02 ПЭ3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\AppData\Local\TempReleases\Snapshot\3\Assembly 02\Документация\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\AppData\Local\TempReleases\Snapshot\2\Assembly 02\Документация\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2F8DCFD-9B10-491E-837E-2E731775C23D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B200A412-2329-46C9-8318-9F8E269397B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B419BC94-5D62-4AAA-97C1-451CAD0187BD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D6A62433-3D14-47B0-9E8E-3085D5ADCE21}"/>
   </bookViews>
   <sheets>
     <sheet name="ГИДР.123456.014-01.02 ПЭ3" sheetId="1" r:id="rId1"/>
@@ -225,7 +225,7 @@
     <t>6</t>
   </si>
   <si>
-    <t>C6, C7, C9, C11, C13, C15, C16, C18, C19, C21, C22, C23, C27, C28, C38, C39</t>
+    <t>C6, C7, C9, C11, C13, C15, C16, C18, C19, C21-23, C27, C28, C38, C39</t>
   </si>
   <si>
     <t>7</t>
@@ -486,7 +486,7 @@
     <t>Светодиод</t>
   </si>
   <si>
-    <t>HL1, HL2, HL3, HL4, HL5, HL6</t>
+    <t>HL1-6</t>
   </si>
   <si>
     <t>47</t>
@@ -899,7 +899,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4924CC3-E539-4032-B502-1DE63DE041B8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08461A41-B503-4653-867A-6B59E5308FFA}">
   <dimension ref="A1:L49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Project Outputs for DCDC_SAUVC26_PCB/ГИДР.123456.014-01.02/Документация/ГИДР.123456.014-01.02 ПЭ3.xlsx
+++ b/Project Outputs for DCDC_SAUVC26_PCB/ГИДР.123456.014-01.02/Документация/ГИДР.123456.014-01.02 ПЭ3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\AppData\Local\TempReleases\Snapshot\2\Assembly 02\Документация\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\AppData\Local\TempReleases\Snapshot\1\Assembly 02\Документация\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B200A412-2329-46C9-8318-9F8E269397B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E864D7AD-5CBF-4FD9-AF76-46523228E6CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D6A62433-3D14-47B0-9E8E-3085D5ADCE21}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BAC53062-0416-42C5-A444-3902CA2F08D2}"/>
   </bookViews>
   <sheets>
     <sheet name="ГИДР.123456.014-01.02 ПЭ3" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="168">
   <si>
     <t>Line #</t>
   </si>
@@ -126,13 +126,13 @@
     <t>VD2, VD5</t>
   </si>
   <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>SK56</t>
-  </si>
-  <si>
-    <t>Диод шоттки на 60 В, ном. ток 5 А</t>
+    <t/>
+  </si>
+  <si>
+    <t>10S45SP</t>
+  </si>
+  <si>
+    <t>Диод шоттки на 45 В, ном. ток 10 А</t>
   </si>
   <si>
     <t>VD3, VD6</t>
@@ -342,22 +342,25 @@
     <t>R18, R19</t>
   </si>
   <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>Резистор номиналом 2,7 кОм и точностью 1%</t>
+    <t>38</t>
+  </si>
+  <si>
+    <t>Резистор номиналом 3,0 кОм и точностью 1%</t>
+  </si>
+  <si>
+    <t>R22, R25</t>
+  </si>
+  <si>
+    <t>Резистор номиналом 5,6 кОм 1%</t>
   </si>
   <si>
     <t>R3</t>
   </si>
   <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>Резистор номиналом 3,0 кОм и точностью 1%</t>
-  </si>
-  <si>
-    <t>R22, R25</t>
+    <t>Резистор номиналом 7,5 кОм 1%</t>
+  </si>
+  <si>
+    <t>R24</t>
   </si>
   <si>
     <t>27</t>
@@ -468,6 +471,12 @@
     <t>R23</t>
   </si>
   <si>
+    <t>Резистор номиналом 390 Ом 1%</t>
+  </si>
+  <si>
+    <t>R21</t>
+  </si>
+  <si>
     <t>28</t>
   </si>
   <si>
@@ -498,7 +507,7 @@
     <t>Транзистор полевой MOSFET N-канальный 40В 41.7Вт</t>
   </si>
   <si>
-    <t>VT2, VT3</t>
+    <t>VT3, VT4</t>
   </si>
   <si>
     <t>46</t>
@@ -510,7 +519,7 @@
     <t>цифровой npn 50в 100мА</t>
   </si>
   <si>
-    <t>VT1</t>
+    <t>VT1, VT2</t>
   </si>
   <si>
     <t>19</t>
@@ -899,8 +908,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08461A41-B503-4653-867A-6B59E5308FFA}">
-  <dimension ref="A1:L49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8C0E03D-F028-4A1F-A9A7-AB765B23065D}">
+  <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1668,7 +1677,7 @@
         <v>106</v>
       </c>
       <c r="E31" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -1679,20 +1688,18 @@
       <c r="L31" s="1"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>107</v>
-      </c>
+      <c r="A32" s="1"/>
       <c r="B32" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C32" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="E32" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -1703,20 +1710,18 @@
       <c r="L32" s="1"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
-        <v>110</v>
-      </c>
+      <c r="A33" s="1"/>
       <c r="B33" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E33" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -1728,19 +1733,19 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E34" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -1752,16 +1757,16 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E35" s="1">
         <v>1</v>
@@ -1776,16 +1781,16 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E36" s="1">
         <v>1</v>
@@ -1800,16 +1805,16 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E37" s="1">
         <v>1</v>
@@ -1824,19 +1829,19 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E38" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -1848,19 +1853,19 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E39" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -1872,16 +1877,16 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E40" s="1">
         <v>1</v>
@@ -1896,19 +1901,19 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E41" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
@@ -1920,16 +1925,16 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E42" s="1">
         <v>2</v>
@@ -1944,19 +1949,19 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E43" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -1968,16 +1973,16 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E44" s="1">
         <v>1</v>
@@ -1992,16 +1997,16 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E45" s="1">
         <v>1</v>
@@ -2015,20 +2020,18 @@
       <c r="L45" s="1"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
-        <v>149</v>
-      </c>
+      <c r="A46" s="1"/>
       <c r="B46" s="2" t="s">
-        <v>150</v>
+        <v>85</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E46" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
@@ -2040,19 +2043,19 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>154</v>
+        <v>85</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E47" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
@@ -2064,19 +2067,19 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E48" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -2088,16 +2091,16 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E49" s="1">
         <v>2</v>
@@ -2110,6 +2113,54 @@
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
     </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E50" s="1">
+        <v>2</v>
+      </c>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E51" s="1">
+        <v>2</v>
+      </c>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Project Outputs for DCDC_SAUVC26_PCB/ГИДР.123456.014-01.02/Документация/ГИДР.123456.014-01.02 ПЭ3.xlsx
+++ b/Project Outputs for DCDC_SAUVC26_PCB/ГИДР.123456.014-01.02/Документация/ГИДР.123456.014-01.02 ПЭ3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\AppData\Local\TempReleases\Snapshot\1\Assembly 02\Документация\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E864D7AD-5CBF-4FD9-AF76-46523228E6CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CFF7F60-148A-49AA-99F5-BB0D8E600CFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BAC53062-0416-42C5-A444-3902CA2F08D2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C1A0C2CC-FC7C-45FA-900C-DCC3CB37997D}"/>
   </bookViews>
   <sheets>
     <sheet name="ГИДР.123456.014-01.02 ПЭ3" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="168">
   <si>
     <t>Line #</t>
   </si>
@@ -908,7 +908,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8C0E03D-F028-4A1F-A9A7-AB765B23065D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4FC4F6E-79F2-4E82-B296-EE1BAD90B8F4}">
   <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1688,7 +1688,9 @@
       <c r="L31" s="1"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
+      <c r="A32" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="B32" s="2" t="s">
         <v>85</v>
       </c>
@@ -1710,7 +1712,9 @@
       <c r="L32" s="1"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
+      <c r="A33" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="B33" s="2" t="s">
         <v>85</v>
       </c>
@@ -2020,7 +2024,9 @@
       <c r="L45" s="1"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A46" s="1"/>
+      <c r="A46" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="B46" s="2" t="s">
         <v>85</v>
       </c>
